--- a/www/assets/xlsx/stats_reg_remote.tpl.xlsx
+++ b/www/assets/xlsx/stats_reg_remote.tpl.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="tpl" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,10 +55,12 @@
     <t>代理人地址</t>
   </si>
   <si>
-    <t>筆數</t>
-  </si>
-  <si>
-    <t>棟數</t>
+    <t>土地筆數</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>建物棟數</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -232,6 +234,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -243,12 +251,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,8 +551,8 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A993" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1010" sqref="I1010"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -561,32 +563,32 @@
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14" style="8" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="12" customWidth="1"/>
+    <col min="12" max="12" width="11" style="8" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
     <col min="14" max="17" width="10.21875" style="1" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.6" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -616,7 +618,7 @@
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -625,10 +627,10 @@
       <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="6" t="s">
